--- a/single_wavelength_data_summary.xlsx
+++ b/single_wavelength_data_summary.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylesmac/PycharmProjects/plant_chloro_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C2C134-8C61-1748-9004-9E14C8661787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A69310-A596-8645-931E-03130D78771B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="560" windowWidth="24280" windowHeight="16100" xr2:uid="{8DDA3BDE-FBE7-AF4B-8D3F-EF7B40B30314}"/>
+    <workbookView xWindow="3540" yWindow="740" windowWidth="24280" windowHeight="16100" xr2:uid="{8DDA3BDE-FBE7-AF4B-8D3F-EF7B40B30314}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mango" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="19">
   <si>
     <t>analyte</t>
   </si>
   <si>
     <t>Total Chlorophyll</t>
-  </si>
-  <si>
-    <t>Chlorophyll a</t>
-  </si>
-  <si>
-    <t>Chlorophyll b</t>
   </si>
   <si>
     <t>Preprocessing</t>
@@ -53,19 +48,49 @@
     <t>raw</t>
   </si>
   <si>
-    <t>SNV</t>
-  </si>
-  <si>
-    <t>MSC</t>
-  </si>
-  <si>
     <t>wavelength</t>
   </si>
   <si>
     <t>transformation</t>
   </si>
   <si>
-    <t>none</t>
+    <t xml:space="preserve">450 nm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 nm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">550 nm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">570 nm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 nm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">650 nm </t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>Logarithm</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
+  </si>
+  <si>
+    <t>Chloro a</t>
+  </si>
+  <si>
+    <t>fraction b</t>
+  </si>
+  <si>
+    <t>Chloro b</t>
   </si>
 </sst>
 </file>
@@ -417,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C3420-39EC-7043-AF3A-9E9D2B070F35}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B37"/>
+      <selection activeCell="D16" sqref="D16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,137 +453,1802 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0.26699704185524797</v>
+      </c>
+      <c r="F2">
+        <v>0.142162161630115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0.60790190098726404</v>
+      </c>
+      <c r="F3">
+        <v>0.104139169209989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0.73667221163822005</v>
+      </c>
+      <c r="F4">
+        <v>8.1207568301729302E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0.71629049145194201</v>
+      </c>
+      <c r="F5">
+        <v>8.4735475401361296E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.69341369001458397</v>
+      </c>
+      <c r="F6">
+        <v>8.7571119333791803E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0.55851595657262398</v>
+      </c>
+      <c r="F7">
+        <v>0.104084159518401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0.228936928225903</v>
+      </c>
+      <c r="F8">
+        <v>0.14786196678050101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0.59723732083588199</v>
+      </c>
+      <c r="F9">
+        <v>0.108338120521615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0.74478431757966601</v>
+      </c>
+      <c r="F10">
+        <v>8.2043691268454802E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0.727045367197795</v>
+      </c>
+      <c r="F11">
+        <v>8.5801003971230305E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0.70645418829961204</v>
+      </c>
+      <c r="F12">
+        <v>8.6169554018542996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0.53952085073711198</v>
+      </c>
+      <c r="F13">
+        <v>0.106847421493474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0.26698289139174702</v>
+      </c>
+      <c r="F14">
+        <v>0.142164567677494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>0.61018368859743499</v>
+      </c>
+      <c r="F15">
+        <v>0.10479037011977201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>0.75475783196245005</v>
+      </c>
+      <c r="F16">
+        <v>7.9912712869504202E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>0.73467135290685504</v>
+      </c>
+      <c r="F17">
+        <v>8.3860003548723305E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>0.69340206432310203</v>
+      </c>
+      <c r="F18">
+        <v>8.7572302014249703E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>0.55861359945275302</v>
+      </c>
+      <c r="F19">
+        <v>0.10393937531051101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0.31088743462217</v>
+      </c>
+      <c r="F20">
+        <v>0.140435086195525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>0.61071888984695699</v>
+      </c>
+      <c r="F21">
+        <v>0.104840905128957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>0.75822771987081605</v>
+      </c>
+      <c r="F22">
+        <v>7.9145225384913198E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>0.73785270261128699</v>
+      </c>
+      <c r="F23">
+        <v>8.3181726109142803E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.71631787166369398</v>
+      </c>
+      <c r="F24">
+        <v>8.4277786648565098E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0.55863187591970298</v>
+      </c>
+      <c r="F25">
+        <v>0.103907016666622</v>
+      </c>
+      <c r="H25">
+        <f>MAX(E2:E25)</f>
+        <v>0.75822771987081605</v>
+      </c>
+      <c r="I25">
+        <f>MIN(F2:F25)</f>
+        <v>7.9145225384913198E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>0.214077707992092</v>
+      </c>
+      <c r="F26">
+        <v>0.108108389239714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>0.59337004192125298</v>
+      </c>
+      <c r="F27">
+        <v>7.8146227238081803E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>0.72189524731537302</v>
+      </c>
+      <c r="F28">
+        <v>6.2511571532969004E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>0.70805878954273405</v>
+      </c>
+      <c r="F29">
+        <v>6.4524269733260795E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>0.65602626360219396</v>
+      </c>
+      <c r="F30">
+        <v>6.9068438169242505E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>0.52771894838725297</v>
+      </c>
+      <c r="F31">
+        <v>7.9279040705802897E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0.17934239873444</v>
+      </c>
+      <c r="F32">
+        <v>0.11195947905162799</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>0.58093528621475199</v>
+      </c>
+      <c r="F33">
+        <v>8.0722094522550802E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>0.72936617338959497</v>
+      </c>
+      <c r="F34">
+        <v>6.1992216491578198E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0.71906457963903603</v>
+      </c>
+      <c r="F35">
+        <v>6.3747209264601007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>0.66254429170100404</v>
+      </c>
+      <c r="F36">
+        <v>6.7852684023748694E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>0.503976503064271</v>
+      </c>
+      <c r="F37">
+        <v>8.1362354922722604E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0.21406573310076599</v>
+      </c>
+      <c r="F38">
+        <v>0.10811127557520001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>0.59536403857081499</v>
+      </c>
+      <c r="F39">
+        <v>7.83096197743329E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>0.74036054239361804</v>
+      </c>
+      <c r="F40">
+        <v>6.0892473071472601E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>0.72753560534880402</v>
+      </c>
+      <c r="F41">
+        <v>6.2875997534602504E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>0.671454299626003</v>
+      </c>
+      <c r="F42">
+        <v>6.7200243620192501E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>0.52771646639771697</v>
+      </c>
+      <c r="F43">
+        <v>7.9277038017657203E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0.265529457496407</v>
+      </c>
+      <c r="F44">
+        <v>0.106280616968065</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>0.59588352755989804</v>
+      </c>
+      <c r="F45">
+        <v>7.83519591184859E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>0.744249434562963</v>
+      </c>
+      <c r="F46">
+        <v>6.0236615909897602E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>0.73124135952231295</v>
+      </c>
+      <c r="F47">
+        <v>6.24112746603716E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>0.67402213041019299</v>
+      </c>
+      <c r="F48">
+        <v>6.6820488810068801E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>0.52774263306158298</v>
+      </c>
+      <c r="F49">
+        <v>7.9319272108858002E-2</v>
+      </c>
+      <c r="H49">
+        <f>MAX(E26:E49)</f>
+        <v>0.744249434562963</v>
+      </c>
+      <c r="I49">
+        <f>MIN(F26:F49)</f>
+        <v>6.0236615909897602E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>0.27669052484615703</v>
+      </c>
+      <c r="F50">
+        <v>3.9923392638791598E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>0.56368858600150695</v>
+      </c>
+      <c r="F51">
+        <v>2.9786532865274599E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>0.66112606928934903</v>
+      </c>
+      <c r="F52">
+        <v>2.5021921550061801E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>0.644087316374921</v>
+      </c>
+      <c r="F53">
+        <v>2.5615643099411101E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>0.62621869862046098</v>
+      </c>
+      <c r="F54">
+        <v>2.7379677698039201E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>0.52301407187466098</v>
+      </c>
+      <c r="F55">
+        <v>3.0808045662616901E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0.24840452992811601</v>
+      </c>
+      <c r="F56">
+        <v>4.0968384573004502E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>0.565915016034371</v>
+      </c>
+      <c r="F57">
+        <v>3.00640167955331E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>0.67840016790636504</v>
+      </c>
+      <c r="F58">
+        <v>2.3438923445962899E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>0.66518185010507502</v>
+      </c>
+      <c r="F59">
+        <v>2.4260881880848101E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>0.65246532990128803</v>
+      </c>
+      <c r="F60">
+        <v>2.52960019133689E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>0.51962361320018802</v>
+      </c>
+      <c r="F61">
+        <v>3.0543839137090401E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>0.276682833829897</v>
+      </c>
+      <c r="F62">
+        <v>3.9923994269965103E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>0.57119437841081799</v>
+      </c>
+      <c r="F63">
+        <v>2.9495523852266801E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>0.68478562880309701</v>
+      </c>
+      <c r="F64">
+        <v>2.3127934222947899E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>0.66946322757224397</v>
+      </c>
+      <c r="F65">
+        <v>2.39089037964531E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>0.62620422608776505</v>
+      </c>
+      <c r="F66">
+        <v>2.738052364683E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>0.52619587951040503</v>
+      </c>
+      <c r="F67">
+        <v>3.04055130300982E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>0.29561842321488402</v>
+      </c>
+      <c r="F68">
+        <v>3.9621315740659101E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>0.57252834461134605</v>
+      </c>
+      <c r="F69">
+        <v>2.9400271270073001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>0.68858458220206398</v>
+      </c>
+      <c r="F70">
+        <v>2.27802966183549E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>0.67264624941560702</v>
+      </c>
+      <c r="F71">
+        <v>2.3554271373818901E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>0.65866102413595895</v>
+      </c>
+      <c r="F72">
+        <v>2.4674214298210099E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>0.52651700721564598</v>
+      </c>
+      <c r="F73">
+        <v>3.03304347794724E-2</v>
+      </c>
+      <c r="H73">
+        <f>MAX(E50:E73)</f>
+        <v>0.68858458220206398</v>
+      </c>
+      <c r="I73">
+        <f>MIN(F50:F73)</f>
+        <v>2.27802966183549E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>0.28199595792334298</v>
+      </c>
+      <c r="F74">
+        <v>3.2292055776673503E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>0.33511864627398502</v>
+      </c>
+      <c r="F75">
+        <v>2.87375041574769E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>0.36155581049403501</v>
+      </c>
+      <c r="F76">
+        <v>2.7384770253109401E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>0.35073396595478901</v>
+      </c>
+      <c r="F77">
+        <v>2.7640775006859498E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>0.38492729499325101</v>
+      </c>
+      <c r="F78">
+        <v>2.6736604875039701E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>0.35615603566313098</v>
+      </c>
+      <c r="F79">
+        <v>2.7203148292347702E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>0.261930573922737</v>
+      </c>
+      <c r="F80">
+        <v>3.3395337848175499E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>0.32417784468453398</v>
+      </c>
+      <c r="F81">
+        <v>2.84134530623599E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>0.34456996747853502</v>
+      </c>
+      <c r="F82">
+        <v>2.7593097688722999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>0.337720405482556</v>
+      </c>
+      <c r="F83">
+        <v>2.7630893167996801E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>0.38181186998509897</v>
+      </c>
+      <c r="F84">
+        <v>2.64197454524597E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>0.34699908883418001</v>
+      </c>
+      <c r="F85">
+        <v>2.6953349356888201E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>0.28198952182959802</v>
+      </c>
+      <c r="F86">
+        <v>3.2293057394653699E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>0.33513726826742002</v>
+      </c>
+      <c r="F87">
+        <v>2.8713768696131799E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>0.36155414884108</v>
+      </c>
+      <c r="F88">
+        <v>2.7386796490852201E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>0.35077318939067698</v>
+      </c>
+      <c r="F89">
+        <v>2.7611667268634899E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>0.38755546026362597</v>
+      </c>
+      <c r="F90">
+        <v>2.64911082248106E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>0.356154620044699</v>
+      </c>
+      <c r="F91">
+        <v>2.7209646564375099E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>0.28766058172769998</v>
+      </c>
+      <c r="F92">
+        <v>3.1820078063321003E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>0.33514046515578699</v>
+      </c>
+      <c r="F93">
+        <v>2.8708663697294998E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>0.361557175326569</v>
+      </c>
+      <c r="F94">
+        <v>2.73812225833623E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>0.35077831151116301</v>
+      </c>
+      <c r="F95">
+        <v>2.76056677025058E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>0.38757212504924998</v>
+      </c>
+      <c r="F96">
+        <v>2.64876813457154E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97">
+        <v>0.35615609950916599</v>
+      </c>
+      <c r="F97">
+        <v>2.7201631712553902E-2</v>
+      </c>
+      <c r="H97">
+        <f>MAX(E74:E97)</f>
+        <v>0.38757212504924998</v>
+      </c>
+      <c r="I97">
+        <f>MIN(F74:F97)</f>
+        <v>2.64197454524597E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949C0C04-20E8-DE45-B620-75447EEA3568}">
+  <dimension ref="A1:F92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D17">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2.2962369190531101E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.150896027517539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1.76283778317931E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.15115293076594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>6.6381767257551905E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.14622841310066301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>6.2573514213796699E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.14649308073965001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>6.0308227473548297E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.14698417436334099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1.49560551774245E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.151607437975358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2.20584637475057E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.15064599573551599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1.6305225666624699E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.150579529177608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>5.1571455883729099E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.14743381444462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>4.8431588771209497E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.14798957727047199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>4.9697213694292898E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.14804167164458801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1.2213808286431999E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.15180131002846001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>2.29601624172154E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.15089455471996899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>1.7627010657020901E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.15115217318843999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>6.6377900437423198E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.14622877132517001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>6.2569478403142004E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.14649349671671499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>6.0304708090577801E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.14698453775189799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>1.4954520584638101E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.15160700051092199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2.9807912595332799E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.15011016671562999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1.9637212058410201E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.15155922660638901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8.8418278460987598E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.14642790635811001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>8.7655751966663698E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.14696682834542099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>8.8617126352315501E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.14447954684318601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>2.9875569995525798E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.14996164971564699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>2.1871138976735701E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.111967981956234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1.62684754490065E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.112038894775161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>6.3994732168456595E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.108534700709657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>6.0272163941140197E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.108830176809838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>5.8652793272722499E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.10917520157613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>1.4450394339079501E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.112415668390971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>2.0871205759779299E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.111853683106183</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>1.5406910032779299E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.111670479874481</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>4.99457225672095E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.109200837676973</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>4.6961040669837598E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.109497440630225</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>4.8127657204708199E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.109905781163222</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>1.1766106604537601E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.112625578703413</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>2.18694600332658E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.111967640236322</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1.62672739852101E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.11203858931815899</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>6.3991348309067997E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.10853485222161501</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>6.0268235682615003E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.108830383638061</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>5.8647985927286199E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.10917564342615101</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>1.4448648097277099E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.11241547724343599</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>2.94471348827199E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.111244595010263</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1.8181366308009698E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.112369366614782</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>8.5457211203726097E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.108500961863671</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>8.4831289411153907E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.109019593007981</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>8.7557231529295801E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.107136029016849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>3.01962352692666E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.110974111645617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
